--- a/sources/card_texts.xlsx
+++ b/sources/card_texts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42940" yWindow="-14340" windowWidth="34460" windowHeight="22680" tabRatio="500"/>
+    <workbookView xWindow="3860" yWindow="460" windowWidth="34460" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -461,9 +461,6 @@
     <t>Create a Causal Loop Diagram on the problem</t>
   </si>
   <si>
-    <t>Start with portfolio management</t>
-  </si>
-  <si>
     <t>Create a customer journey mapping</t>
   </si>
   <si>
@@ -477,6 +474,9 @@
   </si>
   <si>
     <t>Change your organisation to a flat one based on circles</t>
+  </si>
+  <si>
+    <t>Apply portfolio management</t>
   </si>
 </sst>
 </file>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2826,14 +2826,14 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>24</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>24</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>24</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>24</v>
